--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1BF748-35A6-4307-8151-59A11D1F993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEADC653-AB30-42B8-A89E-4F14771DA5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>rice</t>
   </si>
@@ -42,114 +42,333 @@
     <t>米 / 飯</t>
   </si>
   <si>
-    <t>cơm</t>
-  </si>
-  <si>
     <t>soup</t>
   </si>
   <si>
+    <t>kimchi</t>
+  </si>
+  <si>
+    <t>泡菜</t>
+  </si>
+  <si>
+    <t>kim chi</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>cá</t>
+  </si>
+  <si>
+    <t>laver</t>
+  </si>
+  <si>
+    <t>紫菜</t>
+  </si>
+  <si>
+    <t>rong biển</t>
+  </si>
+  <si>
+    <t>sandwich</t>
+  </si>
+  <si>
+    <t>三明治</t>
+  </si>
+  <si>
+    <t>bánh mì kẹp</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>沙拉</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>雞蛋</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>trái cây</t>
+  </si>
+  <si>
+    <t>orange juice</t>
+  </si>
+  <si>
+    <t>柳橙汁</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>sữa</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>vietnamese</t>
+  </si>
+  <si>
+    <t>xà lách</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gà</t>
+  </si>
+  <si>
+    <t>雞肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>súp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>湯</t>
-  </si>
-  <si>
-    <t>súp</t>
-  </si>
-  <si>
-    <t>kimchi</t>
-  </si>
-  <si>
-    <t>泡菜</t>
-  </si>
-  <si>
-    <t>kim chi</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>魚</t>
-  </si>
-  <si>
-    <t>cá</t>
-  </si>
-  <si>
-    <t>laver</t>
-  </si>
-  <si>
-    <t>紫菜</t>
-  </si>
-  <si>
-    <t>rong biển</t>
-  </si>
-  <si>
-    <t>sandwich</t>
-  </si>
-  <si>
-    <t>三明治</t>
-  </si>
-  <si>
-    <t>bánh mì kẹp</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>沙拉</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>雞蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣湯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot and sour soup</t>
+  </si>
+  <si>
+    <t>canh chua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m</t>
+    </r>
   </si>
   <si>
     <t>trứng</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>水果</t>
-  </si>
-  <si>
-    <t>trái cây</t>
-  </si>
-  <si>
-    <t>orange juice</t>
-  </si>
-  <si>
-    <t>柳橙汁</t>
-  </si>
-  <si>
-    <t>nước cam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ớc cam</t>
+    </r>
+  </si>
+  <si>
+    <t>豆腐</t>
+  </si>
+  <si>
+    <t>tofu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m bông</t>
+    </r>
+  </si>
+  <si>
+    <t>ham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ớt</t>
+  </si>
+  <si>
+    <t>辣椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chili pepper </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飯糰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m nắm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ậu hủ</t>
+    </r>
+  </si>
+  <si>
+    <t>trà sữa</t>
+  </si>
+  <si>
+    <t>奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>milk</t>
-  </si>
-  <si>
-    <t>牛奶</t>
-  </si>
-  <si>
-    <t>sữa</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>vietnamese</t>
-  </si>
-  <si>
-    <t>xà lách</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,19 +378,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C484E"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,15 +467,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,26 +803,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,121 +836,218 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.2">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.2">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.2">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.2">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEADC653-AB30-42B8-A89E-4F14771DA5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739554B-B4A5-4E51-8D8F-D292FCE3E26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>rice</t>
   </si>
@@ -361,6 +361,52 @@
   </si>
   <si>
     <t>milk tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bánh quy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餅乾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biscuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>t</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,6 +487,20 @@
       <sz val="12"/>
       <color rgb="FF1F1F1F"/>
       <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="254"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體 Light"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -806,7 +866,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1038,10 +1098,26 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739554B-B4A5-4E51-8D8F-D292FCE3E26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108D246-19CF-4853-A8FC-B5F5E6C66D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>rice</t>
   </si>
@@ -63,13 +63,7 @@
     <t>cá</t>
   </si>
   <si>
-    <t>laver</t>
-  </si>
-  <si>
     <t>紫菜</t>
-  </si>
-  <si>
-    <t>rong biển</t>
   </si>
   <si>
     <t>sandwich</t>
@@ -384,30 +378,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="254"/>
-      </rPr>
-      <t>ị</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體 Light"/>
+    <t>laver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagel</t>
+  </si>
+  <si>
+    <t>貝果</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>土司/烤麵包片</t>
+  </si>
+  <si>
+    <t>fried eggs</t>
+  </si>
+  <si>
+    <t>炒蛋</t>
+  </si>
+  <si>
+    <t>trứng chiên</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>培根</t>
+  </si>
+  <si>
+    <t>thịt xông khói</t>
+  </si>
+  <si>
+    <t>omelet</t>
+  </si>
+  <si>
+    <t>煎蛋捲</t>
+  </si>
+  <si>
+    <t>trứng tráng</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>穀片/麥片</t>
+  </si>
+  <si>
+    <t>waffle</t>
+  </si>
+  <si>
+    <t>鬆餅</t>
+  </si>
+  <si>
+    <t>bánh quế (waffle)</t>
+  </si>
+  <si>
+    <t>pancake</t>
+  </si>
+  <si>
+    <t>薄煎餅</t>
+  </si>
+  <si>
+    <t>bánh kếp</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>火腿</t>
+  </si>
+  <si>
+    <t>cold cuts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷切肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可頌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>croissant</t>
+  </si>
+  <si>
+    <t>bánh sừng bò</t>
+  </si>
+  <si>
+    <t>rong biển</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thịt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bánh mì n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>t</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ớng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ngũ cốc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>n sáng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m bông</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thịt nguội</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bánh vòng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜甜圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bánh rán / Bánh doughnut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doughnut</t>
   </si>
 </sst>
 </file>
@@ -493,14 +655,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="254"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體 Light"/>
+      <color rgb="FF333D42"/>
+      <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -527,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +709,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,29 +1034,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2">
@@ -896,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -904,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -934,193 +1105,322 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.2">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="C24" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2">
+      <c r="A26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.2">
+      <c r="A31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108D246-19CF-4853-A8FC-B5F5E6C66D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C5FA3-8191-4B99-98F7-34C3B44ACE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>rice</t>
   </si>
@@ -93,9 +93,6 @@
     <t>水果</t>
   </si>
   <si>
-    <t>trái cây</t>
-  </si>
-  <si>
     <t>orange juice</t>
   </si>
   <si>
@@ -213,18 +210,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ư</t>
+    <t>豆腐</t>
+  </si>
+  <si>
+    <t>tofu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ă</t>
     </r>
     <r>
       <rPr>
@@ -234,37 +237,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>ớc cam</t>
-    </r>
-  </si>
-  <si>
-    <t>豆腐</t>
-  </si>
-  <si>
-    <t>tofu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ă</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>m bông</t>
     </r>
   </si>
@@ -275,9 +247,6 @@
   <si>
     <t>火腿</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ớt</t>
   </si>
   <si>
     <t>辣椒</t>
@@ -412,81 +381,254 @@
     <t>thịt xông khói</t>
   </si>
   <si>
+    <t>煎蛋捲</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>waffle</t>
+  </si>
+  <si>
+    <t>pancake</t>
+  </si>
+  <si>
+    <t>薄煎餅</t>
+  </si>
+  <si>
+    <t>bánh kếp</t>
+  </si>
+  <si>
+    <t>cold cuts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷切肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可頌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>croissant</t>
+  </si>
+  <si>
+    <t>bánh sừng bò</t>
+  </si>
+  <si>
+    <t>rong biển</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thịt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bánh mì n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ớng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ngũ cốc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>n sáng</t>
+    </r>
+  </si>
+  <si>
+    <t>thịt nguội</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bánh vòng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜甜圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bánh rán / Bánh doughnut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doughnut</t>
+  </si>
+  <si>
+    <r>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ng tráng</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>omelet</t>
-  </si>
-  <si>
-    <t>煎蛋捲</t>
-  </si>
-  <si>
-    <t>trứng tráng</t>
-  </si>
-  <si>
-    <t>cereal</t>
-  </si>
-  <si>
-    <t>穀片/麥片</t>
-  </si>
-  <si>
-    <t>waffle</t>
-  </si>
-  <si>
-    <t>鬆餅</t>
-  </si>
-  <si>
-    <t>bánh quế (waffle)</t>
-  </si>
-  <si>
-    <t>pancake</t>
-  </si>
-  <si>
-    <t>薄煎餅</t>
-  </si>
-  <si>
-    <t>bánh kếp</t>
-  </si>
-  <si>
-    <t>ham</t>
-  </si>
-  <si>
-    <t>火腿</t>
-  </si>
-  <si>
-    <t>cold cuts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷切肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可頌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>croissant</t>
-  </si>
-  <si>
-    <t>bánh sừng bò</t>
-  </si>
-  <si>
-    <t>rong biển</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thịt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bánh mì n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỏ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garlic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>t ong</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coconut water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -494,26 +636,31 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Microsoft JhengHei Light"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>ớng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ngũ cốc </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ă</t>
+      <t>c d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
     </r>
     <r>
       <rPr>
@@ -523,12 +670,17 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>n sáng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gi</t>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -536,9 +688,68 @@
         <color theme="1"/>
         <rFont val="Cambria"/>
         <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ă</t>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>c cam</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trái cây</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穀片/麥片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬆餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨(北)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quả dứa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨(南)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>trái th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
     </r>
     <r>
       <rPr>
@@ -548,35 +759,200 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>m bông</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thịt nguội</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bánh vòng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜甜圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bánh rán / Bánh doughnut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doughnut</t>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineapple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuối</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dưa hấu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xoài</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅毛丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bánh quế (waffle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chôm chôm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一小串香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a hand of bananas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>t n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>i chu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rambutan</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mango</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grapes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓優格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>táo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>a chua dâu tây</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strawberry yogurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -654,17 +1030,56 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF333D42"/>
       <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="254"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體 Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="254"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="254"/>
     </font>
   </fonts>
   <fills count="2">
@@ -689,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,8 +1132,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,15 +1455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
@@ -1050,13 +1471,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2">
@@ -1067,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1075,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1105,13 +1526,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1133,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1144,18 +1565,18 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.2">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1166,261 +1587,404 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.2">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.2">
       <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2">
       <c r="A26" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.2">
       <c r="A31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.2">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.2">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.2">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C5FA3-8191-4B99-98F7-34C3B44ACE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C706991C-F1E5-4D37-A205-086009B4C3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -360,9 +360,6 @@
     <t>toast</t>
   </si>
   <si>
-    <t>土司/烤麵包片</t>
-  </si>
-  <si>
     <t>fried eggs</t>
   </si>
   <si>
@@ -945,6 +942,10 @@
   </si>
   <si>
     <t>strawberry yogurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐司/烤麵包片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1458,7 +1459,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1532,7 +1533,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1587,7 +1588,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1598,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1686,7 +1687,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1708,18 +1709,18 @@
         <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1730,18 +1731,18 @@
         <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2">
@@ -1749,230 +1750,230 @@
         <v>63</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.2">
       <c r="A31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19.2">
       <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19.2">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.2">

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C706991C-F1E5-4D37-A205-086009B4C3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C8352-87AC-4B88-990B-CB5C3510ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>rice</t>
   </si>
@@ -946,6 +946,98 @@
   </si>
   <si>
     <t>吐司/烤麵包片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黃瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>a chu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cucumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black pepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>t tiêu</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +1045,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1081,6 +1173,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="254"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1458,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1976,13 +2080,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.2">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47" s="7"/>
+    <row r="47" spans="1:3" ht="19.2">
+      <c r="A47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="C48" s="7"/>
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="7"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C8352-87AC-4B88-990B-CB5C3510ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0D44A-75CA-4A02-9FB3-64E5FD1F3767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>rice</t>
   </si>
@@ -1038,6 +1041,120 @@
       </rPr>
       <t>t tiêu</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑葚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dâu t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mulberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sô-cô-la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cream puff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶油泡芙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bánh su kem </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chocolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rau c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> qu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixed vegetables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綜合蔬果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白蘿蔔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white radish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>củ cải</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1186,6 +1303,13 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF161209"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1209,7 +1333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,6 +1369,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1630,482 +1757,535 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.2">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.2">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.2">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.2">
       <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>92</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.2">
-      <c r="A26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.2">
       <c r="A30" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.2">
-      <c r="A31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.2">
+      <c r="A35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.2">
-      <c r="A36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19.2">
-      <c r="A38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.2">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19.2">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="19.2">
+        <v>119</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>138</v>
+        <v>118</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19.2">
+      <c r="A51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C52" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="7"/>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C53" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0D44A-75CA-4A02-9FB3-64E5FD1F3767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DED0F7-08C3-4CF3-8C4C-8B2B74D4C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>rice</t>
   </si>
@@ -184,18 +184,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ơ</t>
+    <t>trứng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐</t>
+  </si>
+  <si>
+    <t>tofu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ă</t>
     </r>
     <r>
       <rPr>
@@ -205,41 +215,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
-    <t>trứng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆腐</t>
-  </si>
-  <si>
-    <t>tofu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>gi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ă</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>m bông</t>
     </r>
   </si>
@@ -265,32 +240,6 @@
   </si>
   <si>
     <t>rice ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ơ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>m nắm</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bánh rán / Bánh doughnut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>doughnut</t>
   </si>
   <si>
@@ -726,18 +671,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鳳梨(北)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quả dứa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鳳梨(南)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>trái th</t>
     </r>
@@ -1155,6 +1092,164 @@
   </si>
   <si>
     <t>củ cải</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grilled pork with rice vermicelli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉串米線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bún thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>t n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bánh rán / bánh doughnut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨(北越)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨(南越)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1309,6 +1404,12 @@
       <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1687,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1712,7 +1813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.2">
+    <row r="2" spans="1:3" ht="19.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1758,57 +1859,57 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1841,18 +1942,18 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.2">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1863,7 +1964,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1874,12 +1975,12 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -1890,13 +1991,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1934,358 +2035,379 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.2">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.2">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19.2">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19.2">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19.2">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19.2">
+      <c r="A54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C53" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DED0F7-08C3-4CF3-8C4C-8B2B74D4C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532C2853-B836-4DEE-AF03-2A726583E4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
   <si>
     <t>rice</t>
   </si>
@@ -333,9 +333,6 @@
     <t>煎蛋捲</t>
   </si>
   <si>
-    <t>cereal</t>
-  </si>
-  <si>
     <t>waffle</t>
   </si>
   <si>
@@ -1250,6 +1247,112 @@
   </si>
   <si>
     <t>鳳梨(南越)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cereal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>phô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> mai</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>c chanh</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemon juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬汁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1788,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1821,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1859,46 +1962,46 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1909,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1953,7 +2056,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1964,7 +2067,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1975,7 +2078,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2063,7 +2166,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2085,18 +2188,18 @@
         <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2107,18 +2210,18 @@
         <v>60</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.2">
@@ -2126,21 +2229,21 @@
         <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2167,247 +2270,281 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.2">
       <c r="A35" s="7" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19.2">
       <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19.2">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19.2">
       <c r="A51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19.2">
       <c r="A54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>159</v>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="19.2">
+      <c r="A58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C57" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532C2853-B836-4DEE-AF03-2A726583E4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA888840-78AB-4197-A996-5341A70707F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>rice</t>
   </si>
@@ -1353,6 +1353,40 @@
   </si>
   <si>
     <t>檸檬汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>canh kh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> qua</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦瓜湯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuffed bitter melon soup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1891,15 +1925,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
@@ -2543,6 +2577,17 @@
         <v>170</v>
       </c>
     </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C57" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA888840-78AB-4197-A996-5341A70707F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FC13FB-F9F9-4A3B-8DE9-FD7B094A6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>rice</t>
   </si>
@@ -1387,6 +1387,18 @@
   </si>
   <si>
     <t>stuffed bitter melon soup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉燒包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bánh bao xá xíu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha siu bao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1925,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2588,6 +2600,17 @@
         <v>173</v>
       </c>
     </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C57" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FC13FB-F9F9-4A3B-8DE9-FD7B094A6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F6B6B7-ECE8-4234-B322-51DE688955BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
+    <workbookView xWindow="5244" yWindow="1560" windowWidth="12228" windowHeight="8928" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="199">
   <si>
     <t>rice</t>
   </si>
@@ -1356,6 +1356,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>stuffed bitter melon soup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉燒包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bánh bao xá xíu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha siu bao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦瓜釀肉湯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>canh kh</t>
     </r>
@@ -1377,28 +1397,172 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> qua</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦瓜湯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stuffed bitter melon soup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叉燒包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bánh bao xá xíu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cha siu bao</t>
+      <t xml:space="preserve"> qua nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>i th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chả cá viên</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋蔥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hành tây</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬鈴薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khoai tây</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vietnamese sticky rice cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越南粽子(北越方形)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bánh ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="254"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越南粽子(南越竹筒形)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bánh tét</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mung bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>đậu xanh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vietnamese fried spring rolls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸春捲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nem rán / ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> giò</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1937,16 +2101,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="34.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -2590,25 +2754,102 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>177</v>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/en_cn_vn.xlsx
+++ b/en_cn_vn.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F6B6B7-ECE8-4234-B322-51DE688955BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789D03F9-891F-439F-AAE8-D860E34D0770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5244" yWindow="1560" windowWidth="12228" windowHeight="8928" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="212">
   <si>
     <t>rice</t>
   </si>
@@ -1563,6 +1566,57 @@
       </rPr>
       <t xml:space="preserve"> giò</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越式煎餅</t>
+  </si>
+  <si>
+    <t>bánh xèo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vietnamese crêpe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金桔(北越)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金桔(南越)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quả quất.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trái tắc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻(北越)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻(南越)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vừng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mè </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kumquat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sesame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2101,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2852,8 +2906,66 @@
         <v>198</v>
       </c>
     </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C57" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}"/>
+  <autoFilter ref="A1:C68" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
